--- a/ky/downloads/data-excel/3.3.2.xlsx
+++ b/ky/downloads/data-excel/3.3.2.xlsx
@@ -674,11 +674,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -688,7 +686,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -710,7 +708,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -723,7 +721,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -781,8 +779,11 @@
       <c r="S3" s="16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -840,8 +841,11 @@
       <c r="S4" s="34">
         <v>57.890663775669807</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="34">
+        <v>52.734251206028382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -899,8 +903,11 @@
       <c r="S5" s="31">
         <v>50.022742766269019</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="31">
+        <v>44.646801162600475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -958,8 +965,11 @@
       <c r="S6" s="32">
         <v>65.935557126462314</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="32">
+        <v>60.998061560200554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1017,8 +1027,11 @@
       <c r="S7" s="35">
         <v>41.756312988336546</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="35">
+        <v>41.931627189714625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="S8" s="32">
         <v>37.159844500343013</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="32">
+        <v>38.177163051511151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1135,8 +1151,11 @@
       <c r="S9" s="32">
         <v>46.265141318977122</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="32">
+        <v>45.607453560981966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
@@ -1194,8 +1213,11 @@
       <c r="S10" s="34">
         <v>54.165137501740752</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="34">
+        <v>50.172884880431361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1253,8 +1275,11 @@
       <c r="S11" s="31">
         <v>47.516379220948068</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="31">
+        <v>44.112367891063748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1312,8 +1337,11 @@
       <c r="S12" s="32">
         <v>60.737168699398438</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="32">
+        <v>56.155144351753421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1399,11 @@
       <c r="S13" s="35">
         <v>38.800251455475774</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="35">
+        <v>37.12775271808399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1430,8 +1461,11 @@
       <c r="S14" s="32">
         <v>28.662467801253705</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="32">
+        <v>26.579446704517768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1489,8 +1523,11 @@
       <c r="S15" s="32">
         <v>48.983865238282192</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="32">
+        <v>47.691579663423148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
@@ -1548,8 +1585,11 @@
       <c r="S16" s="35">
         <v>52.046737970697684</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="35">
+        <v>49.966474107695483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1607,8 +1647,11 @@
       <c r="S17" s="32">
         <v>42.039438248006412</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="32">
+        <v>44.339536521432947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1666,8 +1709,11 @@
       <c r="S18" s="32">
         <v>61.864439546842981</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="32">
+        <v>55.468421253968863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -1725,8 +1771,11 @@
       <c r="S19" s="35">
         <v>54.559895023999445</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="35">
+        <v>45.077411133103766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1784,8 +1833,11 @@
       <c r="S20" s="31">
         <v>48.115700180781531</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="31">
+        <v>42.341975649266388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1843,8 +1895,11 @@
       <c r="S21" s="32">
         <v>60.917884338341217</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="32">
+        <v>47.772457765110225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
@@ -1902,8 +1957,11 @@
       <c r="S22" s="35">
         <v>44.498872817808376</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="35">
+        <v>46.127136558116561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1961,8 +2019,11 @@
       <c r="S23" s="32">
         <v>40.811480640517637</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="32">
+        <v>38.861148383596195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2020,8 +2081,11 @@
       <c r="S24" s="32">
         <v>48.122142747774355</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="32">
+        <v>53.259250196123595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -2079,8 +2143,11 @@
       <c r="S25" s="35">
         <v>86.286397363931727</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="35">
+        <v>77.010722119335071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2138,8 +2205,11 @@
       <c r="S26" s="31">
         <v>68.335423960459067</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="31">
+        <v>59.189709472566221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2197,8 +2267,11 @@
       <c r="S27" s="31">
         <v>104.46468013142454</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="31">
+        <v>95.060584781341987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2329,11 @@
       <c r="S28" s="35">
         <v>63.925654994479551</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="35">
+        <v>61.976853895626128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2315,8 +2391,11 @@
       <c r="S29" s="31">
         <v>57.785410559676791</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="31">
+        <v>48.390234028455353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2453,11 @@
       <c r="S30" s="32">
         <v>71.340059495655098</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="32">
+        <v>78.407224173903401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
@@ -2433,8 +2515,11 @@
       <c r="S31" s="34">
         <v>50.853410128538314</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="34">
+        <v>39.559787476030614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2492,8 +2577,11 @@
       <c r="S32" s="31">
         <v>51.223021582733814</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="31">
+        <v>41.059215262778977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2550,6 +2638,9 @@
       </c>
       <c r="S33" s="33">
         <v>50.500891999451071</v>
+      </c>
+      <c r="T33" s="33">
+        <v>38.128175110356899</v>
       </c>
     </row>
   </sheetData>
